--- a/final project/gantt_chart.xlsx
+++ b/final project/gantt_chart.xlsx
@@ -2250,11 +2250,16 @@
     <xf numFmtId="0" fontId="12" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2276,11 +2281,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3041,39 +3041,39 @@
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="141"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3133,15 +3133,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="142">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="145">
         <v>43019</v>
       </c>
-      <c r="F4" s="142"/>
+      <c r="F4" s="145"/>
       <c r="J4" s="10">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>43017</v>
@@ -3372,178 +3372,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="J5" s="137" t="str">
+      <c r="J5" s="136" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137" t="str">
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137" t="str">
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="137"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137" t="str">
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137" t="str">
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AM5" s="137"/>
-      <c r="AN5" s="137"/>
-      <c r="AO5" s="137"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="137"/>
-      <c r="AR5" s="137"/>
-      <c r="AS5" s="137" t="str">
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AT5" s="137"/>
-      <c r="AU5" s="137"/>
-      <c r="AV5" s="137"/>
-      <c r="AW5" s="137"/>
-      <c r="AX5" s="137"/>
-      <c r="AY5" s="137"/>
-      <c r="AZ5" s="137" t="str">
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BA5" s="137"/>
-      <c r="BB5" s="137"/>
-      <c r="BC5" s="137"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137" t="str">
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
+      <c r="BL5" s="136"/>
+      <c r="BM5" s="136"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="B6" s="23"/>
-      <c r="J6" s="146">
+      <c r="J6" s="137">
         <f>J4</f>
         <v>43017</v>
       </c>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146">
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137">
         <f>Q4</f>
         <v>43024</v>
       </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146">
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137">
         <f>X4</f>
         <v>43031</v>
       </c>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146">
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="137"/>
+      <c r="AD6" s="137"/>
+      <c r="AE6" s="137">
         <f>AE4</f>
         <v>43038</v>
       </c>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146">
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="137"/>
+      <c r="AH6" s="137"/>
+      <c r="AI6" s="137"/>
+      <c r="AJ6" s="137"/>
+      <c r="AK6" s="137"/>
+      <c r="AL6" s="137">
         <f>AL4</f>
         <v>43045</v>
       </c>
-      <c r="AM6" s="146"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="146"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146">
+      <c r="AM6" s="137"/>
+      <c r="AN6" s="137"/>
+      <c r="AO6" s="137"/>
+      <c r="AP6" s="137"/>
+      <c r="AQ6" s="137"/>
+      <c r="AR6" s="137"/>
+      <c r="AS6" s="137">
         <f>AS4</f>
         <v>43052</v>
       </c>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146">
+      <c r="AT6" s="137"/>
+      <c r="AU6" s="137"/>
+      <c r="AV6" s="137"/>
+      <c r="AW6" s="137"/>
+      <c r="AX6" s="137"/>
+      <c r="AY6" s="137"/>
+      <c r="AZ6" s="137">
         <f>AZ4</f>
         <v>43059</v>
       </c>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146">
+      <c r="BA6" s="137"/>
+      <c r="BB6" s="137"/>
+      <c r="BC6" s="137"/>
+      <c r="BD6" s="137"/>
+      <c r="BE6" s="137"/>
+      <c r="BF6" s="137"/>
+      <c r="BG6" s="137">
         <f>BG4</f>
         <v>43066</v>
       </c>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="146"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
+      <c r="BH6" s="137"/>
+      <c r="BI6" s="137"/>
+      <c r="BJ6" s="137"/>
+      <c r="BK6" s="137"/>
+      <c r="BL6" s="137"/>
+      <c r="BM6" s="137"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
@@ -5893,10 +5893,10 @@
       <c r="BN33" s="116"/>
     </row>
     <row r="34" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="145"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -6786,12 +6786,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J2:Z2"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
@@ -6801,15 +6804,12 @@
     <mergeCell ref="Q6:W6"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="J2:Z2"/>
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H45">
